--- a/biology/Botanique/Spathe/Spathe.xlsx
+++ b/biology/Botanique/Spathe/Spathe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, une spathe est une grande bractée membraneuse ou foliacée enveloppant plus ou moins une inflorescence, et ouverte latéralement par une fente. 
 On en trouve notamment dans la famille des aracées (dont l'inflorescence caractéristique porte le nom de spadice), qui ont chez certaines espèces une valeur décorative à la fois par leur forme et leur couleur, ainsi que chez des palmiers (Arecaceae) et le Narcissus (Amaryllidaceae). 
